--- a/db/db-challenge2/チャットルームデータベース定義書.xlsx
+++ b/db/db-challenge2/チャットルームデータベース定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0356ED3C-07B6-47E1-AA84-4F56A2CDB235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77DB57CC-5AC3-49D4-9800-9AD238D98A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="利用者情報" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="95">
   <si>
     <t>テーブル名</t>
   </si>
@@ -174,7 +174,7 @@
     <t>利用者id</t>
   </si>
   <si>
-    <t>user_id</t>
+    <t>id</t>
   </si>
   <si>
     <t>integer</t>
@@ -261,7 +261,7 @@
     <t>update current_timestamp</t>
   </si>
   <si>
-    <t>chatrooms</t>
+    <t>chat_rooms</t>
   </si>
   <si>
     <t>チャットルームに関する情報を保持するテーブル</t>
@@ -270,9 +270,6 @@
     <t>チャットルームid</t>
   </si>
   <si>
-    <t>room_id</t>
-  </si>
-  <si>
     <t>チャット名</t>
   </si>
   <si>
@@ -297,7 +294,7 @@
     <t>ダイレクトチャットフラグ</t>
   </si>
   <si>
-    <t>chat_type</t>
+    <t>is_one_on_one</t>
   </si>
   <si>
     <t>1の場合はダイレクトチャット(参加人数が2名の場合）</t>
@@ -324,7 +321,7 @@
     <t>created_at</t>
   </si>
   <si>
-    <t>chatroom_joined_list</t>
+    <t>chat_rooms_joined_list</t>
   </si>
   <si>
     <t>チャットルームと利用者のリレーションを保持するテーブル</t>
@@ -339,7 +336,7 @@
     <t>PK・FK</t>
   </si>
   <si>
-    <t>chatroom_id</t>
+    <t>chat_room_id</t>
   </si>
   <si>
     <t>参加日時</t>
@@ -354,9 +351,6 @@
     <t>投稿id</t>
   </si>
   <si>
-    <t>post_id</t>
-  </si>
-  <si>
     <t>投稿テキスト内容</t>
   </si>
   <si>
@@ -366,7 +360,7 @@
     <t>投稿ファイル名</t>
   </si>
   <si>
-    <t>post_filename</t>
+    <t>post_file_name</t>
   </si>
   <si>
     <t>投稿者id</t>
@@ -387,9 +381,6 @@
     <t>タスクid</t>
   </si>
   <si>
-    <t>task_id</t>
-  </si>
-  <si>
     <t>タスク内容</t>
   </si>
   <si>
@@ -405,7 +396,7 @@
     <t>進捗</t>
   </si>
   <si>
-    <t>status</t>
+    <t>is_done</t>
   </si>
   <si>
     <t>1の場合はタスク完了</t>
@@ -420,7 +411,7 @@
     <t>登録チャットルームid</t>
   </si>
   <si>
-    <t>rerated_chatroom_id</t>
+    <t>rerated_chat_room_id</t>
   </si>
 </sst>
 </file>
@@ -787,7 +778,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1203,9 +1194,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="B5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1316,7 +1307,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -1343,10 +1334,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>22</v>
@@ -1369,10 +1360,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>22</v>
@@ -1393,10 +1384,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>35</v>
@@ -1413,7 +1404,7 @@
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -1423,10 +1414,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>35</v>
@@ -1443,7 +1434,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -1483,10 +1474,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -1499,7 +1490,7 @@
         <v>17</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="8"/>
@@ -1511,10 +1502,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -1527,7 +1518,7 @@
         <v>17</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="8"/>
@@ -1539,10 +1530,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>39</v>
@@ -1639,7 +1630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1660,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -1677,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -1744,10 +1735,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -1760,7 +1751,7 @@
         <v>17</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="13"/>
@@ -1775,7 +1766,7 @@
         <v>46</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -1788,7 +1779,7 @@
         <v>17</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -1800,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>38</v>
@@ -1984,7 +1975,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2008,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -2025,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -2092,10 +2083,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -2125,7 +2116,7 @@
         <v>46</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -2138,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -2150,10 +2141,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>22</v>
@@ -2176,10 +2167,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>22</v>
@@ -2230,10 +2221,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -2246,7 +2237,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="8"/>
@@ -2258,10 +2249,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -2274,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="8"/>
@@ -2286,10 +2277,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>39</v>
@@ -2400,9 +2391,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2426,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -2443,7 +2434,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -2510,10 +2501,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -2540,10 +2531,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>22</v>
@@ -2566,10 +2557,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -2582,7 +2573,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -2594,10 +2585,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>35</v>
@@ -2614,7 +2605,7 @@
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -2624,10 +2615,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>39</v>
@@ -2646,10 +2637,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -2662,7 +2653,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="8"/>
@@ -2704,10 +2695,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -2720,7 +2711,7 @@
         <v>17</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="8"/>
@@ -2732,10 +2723,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -2748,7 +2739,7 @@
         <v>17</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -2760,10 +2751,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>39</v>

--- a/db/db-challenge2/チャットルームデータベース定義書.xlsx
+++ b/db/db-challenge2/チャットルームデータベース定義書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77DB57CC-5AC3-49D4-9800-9AD238D98A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6408D256-3762-461B-A453-2DD7FAE2FE65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,7 +288,7 @@
     <t>file_transmission</t>
   </si>
   <si>
-    <t>０の場合ファイル送信許可 1の場合制限あり</t>
+    <t>1の場合ファイル送信許可 0の場合制限あり</t>
   </si>
   <si>
     <t>ダイレクトチャットフラグ</t>
@@ -778,7 +778,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1192,11 +1192,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>17</v>
@@ -1608,6 +1608,16 @@
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
+    </row>
+    <row r="18" spans="4:11" ht="15.75" customHeight="1">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/db/db-challenge2/チャットルームデータベース定義書.xlsx
+++ b/db/db-challenge2/チャットルームデータベース定義書.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23607"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6408D256-3762-461B-A453-2DD7FAE2FE65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{977EEA10-F3E4-424C-BDC1-BE07CC415378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,7 +285,7 @@
     <t>ファイル送信制御</t>
   </si>
   <si>
-    <t>file_transmission</t>
+    <t>is_file_transmitable</t>
   </si>
   <si>
     <t>1の場合ファイル送信許可 0の場合制限あり</t>
@@ -1196,7 +1196,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
